--- a/BCPR203_Data_Dictionary_ChaoChenV1.xlsx
+++ b/BCPR203_Data_Dictionary_ChaoChenV1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenchao/Sites/BCPR203database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenchao/Desktop/moodle/2017semester2/BCPR203/Design Assignment/BCPR203_ASS1_ChaoChen/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="24960" windowHeight="13760" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -98,27 +98,15 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
-    <t>pID</t>
-  </si>
-  <si>
     <t>referralDate</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>surID</t>
-  </si>
-  <si>
-    <t>refID</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
     <t>ReferralPerson</t>
   </si>
   <si>
-    <t>pFirstname</t>
-  </si>
-  <si>
     <t>varchar</t>
   </si>
   <si>
@@ -170,63 +155,27 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
     <t>Patient Gender</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>Hospital Department</t>
-  </si>
-  <si>
-    <t>surFirstname</t>
-  </si>
-  <si>
-    <t>plastnname</t>
-  </si>
-  <si>
-    <t>surLastname</t>
-  </si>
-  <si>
     <t>surgeon firstname</t>
   </si>
   <si>
     <t>surgeon lastname</t>
   </si>
   <si>
-    <t>Referral</t>
-  </si>
-  <si>
     <t>referral ID</t>
   </si>
   <si>
-    <t>refFrom</t>
-  </si>
-  <si>
     <t>Source of Incoming Referral</t>
   </si>
   <si>
-    <t>refFirstname</t>
-  </si>
-  <si>
-    <t>refLastname</t>
-  </si>
-  <si>
     <t>Person Firstname Sending Referral</t>
   </si>
   <si>
     <t>Person Lastname Sending Referral</t>
   </si>
   <si>
-    <t>F,M or U</t>
-  </si>
-  <si>
     <t>Input Mask</t>
   </si>
   <si>
@@ -239,19 +188,76 @@
     <t>Format – Short Date</t>
   </si>
   <si>
-    <t>fsaDate</t>
-  </si>
-  <si>
-    <t>Bool</t>
-  </si>
-  <si>
     <t>First Specialist Appointment Date</t>
   </si>
   <si>
     <t>If referral is eligible for Ministry of Health reporting</t>
   </si>
   <si>
-    <t>eligible</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Departmnent</t>
+  </si>
+  <si>
+    <t>dept_name</t>
+  </si>
+  <si>
+    <t>Department ID</t>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>dept_id</t>
+  </si>
+  <si>
+    <t>Hospital Department ID</t>
+  </si>
+  <si>
+    <t>referred_from</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>surgeon_id</t>
+  </si>
+  <si>
+    <t>refper_id</t>
+  </si>
+  <si>
+    <t>PK,FK</t>
+  </si>
+  <si>
+    <t>referral person ID</t>
+  </si>
+  <si>
+    <t>fsa_date</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>"Yes" or "no"</t>
   </si>
 </sst>
 </file>
@@ -321,8 +327,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H28" totalsRowShown="0">
-  <autoFilter ref="A2:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H30" totalsRowShown="0">
+  <autoFilter ref="A2:H30"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -600,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,317 +679,354 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H5" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="H21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
